--- a/data/trans_dic/P40_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P40_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra parado/a en la actualidad</t>
+          <t>Población que se encuentra parado/a en la actualidad (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8,3%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10,97%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,86; 19,58</t>
+          <t>8,03; 28,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 11,78</t>
+          <t>4,27; 13,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,21</t>
+          <t>3,86; 12,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,1</t>
+          <t>1,94; 9,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,49; 19,57</t>
+          <t>4,2; 13,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,57; 18,53</t>
+          <t>12,08; 22,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 11,88</t>
+          <t>10,4; 20,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 13,8</t>
+          <t>5,75; 13,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,94; 17,66</t>
+          <t>7,98; 16,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,03; 14,02</t>
+          <t>9,49; 18,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,31; 9,42</t>
+          <t>11,74; 22,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,4; 9,51</t>
+          <t>8,78; 15,54</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5,79; 11,76</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 11,75</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>7,92; 14,58</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>19,74%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>15,75%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>12,77%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,37; 25,43</t>
+          <t>10,64; 25,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,48; 31,98</t>
+          <t>9,38; 25,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,56; 18,04</t>
+          <t>7,92; 25,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 20,61</t>
+          <t>7,87; 24,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,06; 30,01</t>
+          <t>4,38; 16,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 28,69</t>
+          <t>16,13; 29,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,32; 21,57</t>
+          <t>17,28; 31,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,14; 25,57</t>
+          <t>11,89; 24,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 25,89</t>
+          <t>15,29; 28,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 27,26</t>
+          <t>10,95; 22,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 18,17</t>
+          <t>15,06; 25,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,05; 21,29</t>
+          <t>15,07; 25,85</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>11,23; 21,75</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13,03; 23,65</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 17,21</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>32,1%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,25%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>10,37%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,81; 50,97</t>
+          <t>7,68; 71,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 53,6</t>
+          <t>10,23; 74,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 39,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 41,19</t>
+          <t>12,69; 42,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,87; 32,52</t>
+          <t>14,81; 44,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,04; 31,72</t>
+          <t>11,5; 40,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,78; 40,15</t>
+          <t>10,43; 40,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,62; 40,0</t>
+          <t>5,88; 34,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,4; 18,92</t>
+          <t>15,07; 50,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 17,27</t>
+          <t>17,75; 53,82</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 21,45</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 19,03</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,79; 17,51</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>17,15%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 21,2</t>
+          <t>11,87; 26,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,77; 20,28</t>
+          <t>9,67; 23,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,58; 11,21</t>
+          <t>6,1; 14,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 11,15</t>
+          <t>5,2; 13,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 22,99</t>
+          <t>4,81; 11,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,1; 22,32</t>
+          <t>16,32; 24,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,61; 16,05</t>
+          <t>15,99; 24,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,15; 17,97</t>
+          <t>10,77; 17,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,41; 20,93</t>
+          <t>12,95; 20,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,41; 20,06</t>
+          <t>11,78; 18,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,87; 12,79</t>
+          <t>15,36; 22,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,59; 13,89</t>
+          <t>13,98; 20,92</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9,38; 15,0</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>9,97; 15,59</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>9,29; 14,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra parado/a en la actualidad (tasa de respuesta: 99,86%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>52034</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33673</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26833</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18470</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>41073</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>72451</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>76798</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>38503</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>48336</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>76272</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>124485</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>110471</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>65336</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>66805</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>117345</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>29356; 102760</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18351; 57270</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14143; 45952</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7398; 36037</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21406; 70845</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>52571; 98358</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>52906; 106014</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24229; 55840</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>32515; 68321</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>53168; 105566</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>94074; 179044</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>82460; 145894</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>45557; 92590</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>45984; 92590</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>84695; 155938</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>50736</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>53947</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>45220</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47516</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37780</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>77070</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>99910</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>58238</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>69820</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>69324</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>127807</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>153857</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>103459</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>117336</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>107104</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>32002; 77759</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33216; 90927</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25223; 79819</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>25389; 77621</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17959; 68130</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>56469; 105007</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>73481; 134873</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>40242; 83261</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>51235; 96078</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>46962; 97549</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>98048; 164251</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>117476; 201511</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>73739; 142822</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>85687; 155557</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>76528; 144314</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27597</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37991</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19842</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27144</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19744</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17216</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18696</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>47440</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>65135</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>19744</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>17216</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>18697</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6512; 60841</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10416; 75376</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10480; 34823</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14987; 44969</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9380; 33228</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8606; 33405</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6544; 37912</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25235; 84823</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36012; 109210</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>9703; 34565</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7960; 31600</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6431; 40408</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>130368</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>125611</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>72053</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>65986</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>78853</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>169364</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>203851</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>116486</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>135372</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>164293</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>299732</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>329463</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>188539</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>201357</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>243146</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>89213; 197298</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>85639; 206281</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>46645; 111336</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>40927; 106154</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>49988; 121209</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>141632; 212252</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>165506; 250666</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>90616; 146712</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>106825; 170459</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>129654; 206378</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>248717; 366386</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>268567; 402025</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>150631; 240696</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>160776; 251277</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>198819; 305431</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
